--- a/data/trans_bre/P36_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P36_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,58</t>
+          <t>-1,92</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,21</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,25</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-81,2%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-72,35%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-87,08%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>-54,11%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-86,92%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>10,22%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,22 +720,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,48; -0,07</t>
+          <t>-7,08; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,22; -0,05</t>
+          <t>-2,76; 0,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,54; -0,27</t>
+          <t>-3,05; -0,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 1,13</t>
+          <t>-2,42; 2,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +745,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 40,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -702,6 +754,26 @@
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>-2,28</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-75,07%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-53,01%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>24,47%</t>
+          <t>-88,82%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>-67,73%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>26,54%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-31,76%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,72; -0,15</t>
+          <t>-6,27; -0,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 0,23</t>
+          <t>-2,82; 0,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 2,07</t>
+          <t>-1,16; 2,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 2,14</t>
+          <t>-3,0; 1,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 19,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-87,82; 45,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-48,21; 184,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-61,77; 130,12</t>
+          <t>-100,0; 46,14</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-46,85; 208,98</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-88,02; 182,12</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,59</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>-1,82</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-52,97%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>23,97%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>-3,04%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-15,65%</t>
+          <t>48,9%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-0,9%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-44,17%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,40 +1000,60 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 0,54</t>
+          <t>-2,61; 2,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 2,9</t>
+          <t>-1,48; 3,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 1,82</t>
+          <t>-2,26; 1,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 1,67</t>
+          <t>-5,97; 0,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-94,95; 52,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-54,85; 193,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-61,64; 195,76</t>
+          <t>-86,35; 314,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-40,72; 298,65</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-66,9; 187,62</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-83,73; 50,92</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -910,7 +1062,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-67,37%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-23,95%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-7,83%</t>
+          <t>-44,37%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-9,67%</t>
+          <t>-53,32%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-1,7%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,26; -0,44</t>
+          <t>-5,29; 0,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 0,52</t>
+          <t>-3,05; 0,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 0,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 1,12</t>
+          <t>-2,3; 2,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-87,56; -22,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-59,12; 39,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-48,02; 72,75</t>
+          <t>-93,76; 84,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-52,23; 104,44</t>
+          <t>-100,0; 153,94</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-58,55; 175,24</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-1,28</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,43</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-0,13</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-0,74</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-56,54%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-22,47%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-6,99%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-26,42%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-3,02; -0,24</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-1,38; 0,44</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-1,2; 0,87</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-2,1; 0,47</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-82,12; 0,05</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-58,15; 33,96</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-49,11; 64,04</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-57,59; 26,74</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P36_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P36_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,203 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,92</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,8</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-1,26</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,12</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-54,11%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-86,92%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>10,22%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>-1.767526764925117</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.7915685334022537</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-1.259138429257009</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.1282361836411615</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.5413156825406886</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.866243850047503</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.1070869410216803</v>
+      </c>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-7,08; 0,0</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,76; 0,69</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-3,05; -0,3</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-2,42; 2,34</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-6.184590285050314</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-2.742513969727153</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-3.061958186114213</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-2.409913167450373</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
+      <c r="K5" s="6" t="inlineStr"/>
+      <c r="L5" s="6" t="inlineStr"/>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.677059381664906</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-0.2896988728573101</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>2.358665444305296</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+      <c r="K6" s="6" t="inlineStr"/>
+      <c r="L6" s="6" t="inlineStr"/>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-2,28</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-1,14</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,5</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-0,73</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-88,82%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-67,73%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>26,54%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-31,76%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-6,27; -0,62</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-2,82; 0,03</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,16; 2,23</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-3,0; 1,55</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 46,14</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-46,85; 208,98</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-88,02; 182,12</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>-2.025666007026773</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-1.135434587434963</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.5144992602958278</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.70284232646328</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="6" t="n">
+        <v>-0.8883867761857279</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.682908627357382</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.2696987546213586</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-0.3105085929916055</v>
+      </c>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,06</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,21</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,02</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-1,82</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-3,04%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>48,9%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-0,9%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-44,17%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-5.558002293146765</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-2.797641284574182</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-1.153784244945693</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-2.956487268561272</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.4567618160028571</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.8691977697786826</v>
+      </c>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-2,61; 2,13</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,48; 3,72</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-2,26; 1,71</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-5,97; 0,83</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-86,35; 314,13</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-40,72; 298,65</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-66,9; 187,62</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-83,73; 50,92</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>-0.552316760354735</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.01057895320250745</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>2.37527604226106</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.6627255683691</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="n">
+        <v>0.4324197914733718</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>2.204471150159764</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>1.965298777581597</v>
+      </c>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +863,234 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-1,05</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,99</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-0,05</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-44,37%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-53,32%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-1,7%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>-0.1201497954465624</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.277288778009643</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.03328192574147786</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-1.88289970410107</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>-0.06992928195463308</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.5250431507323732</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.0171789270857808</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.4562081081968284</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-5,29; 0,76</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-3,05; 0,57</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-2,3; 2,8</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-93,76; 84,58</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 153,94</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-58,55; 175,24</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-2.440171400339428</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-1.379429902643587</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-2.008615847271705</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-5.79580616672855</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.8659095061249328</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.3851985631677463</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.6593517480279951</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.8344134552902933</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>1.850691718907185</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>3.777648140616185</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.732928233594379</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.8136422171795763</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>2.69221482640653</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>3.13317891422394</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>2.044197727265657</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.4806255664430313</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-1,28</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,43</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,13</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-0,74</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-56,54%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-22,47%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-6,99%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-26,42%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-3,02; -0,24</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-1,38; 0,44</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-1,2; 0,87</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-2,1; 0,47</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-82,12; 0,05</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-58,15; 33,96</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-49,11; 64,04</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-57,59; 26,74</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>-1.306261442918662</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.2527353476978828</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.1105202770293391</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.9859407059427224</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="6" t="n">
+        <v>-0.6554154420713111</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.134606541500518</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.0606556047074613</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.3621728951587616</v>
+      </c>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-3.083520138371358</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-1.396235197445876</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-1.195713763735051</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-2.674876745148334</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>-0.899611737887847</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.5673224930157854</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.4959759123940296</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.7096609873601285</v>
+      </c>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-0.2073412348238538</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.7877842526541168</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.9239011583488548</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.5832132462143644</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="6" t="n">
+        <v>-0.05834880532900767</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.6349599198327971</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.6406983281178288</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.3506802081302229</v>
+      </c>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
